--- a/data/trans_orig/Q5409-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9254</v>
+        <v>9014</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02897938752426159</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008139917447647018</v>
+        <v>0.007889844989056406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07174380809192991</v>
+        <v>0.06987750599141157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>13185</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7524</v>
+        <v>6890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22493</v>
+        <v>22127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04843676958847788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02763989746405789</v>
+        <v>0.02531052397450981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08262982872496925</v>
+        <v>0.08128659640383966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>16923</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9801</v>
+        <v>10175</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26661</v>
+        <v>26406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04218102951118871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02442943544601189</v>
+        <v>0.02536199339416437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06645324646600939</v>
+        <v>0.06581602614214199</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4600</v>
+        <v>4634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16027</v>
+        <v>15572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07121266732733188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03566501965121495</v>
+        <v>0.03592546186777885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1242505887078103</v>
+        <v>0.1207191887421566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -836,19 +836,19 @@
         <v>20679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12556</v>
+        <v>13199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31077</v>
+        <v>31742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07596799550513059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04612596072327407</v>
+        <v>0.04848646583454386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1141665274698718</v>
+        <v>0.1166076128585147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -857,19 +857,19 @@
         <v>29865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19527</v>
+        <v>19972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42894</v>
+        <v>41859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07443911063437364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04867063611762221</v>
+        <v>0.04977960125613589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1069130906115782</v>
+        <v>0.1043336552926573</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>116067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108621</v>
+        <v>109136</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121384</v>
+        <v>121987</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8998079451484066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8420786215124046</v>
+        <v>0.8460773784419151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9410297495518718</v>
+        <v>0.9457030107304621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>235</v>
@@ -907,19 +907,19 @@
         <v>238348</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>224910</v>
+        <v>225087</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>248665</v>
+        <v>248103</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8755952349063916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.826230174028435</v>
+        <v>0.8268801302912565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9134968115234443</v>
+        <v>0.9114318062178575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>360</v>
@@ -928,19 +928,19 @@
         <v>354415</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>339394</v>
+        <v>337955</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>366382</v>
+        <v>365948</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8833798598544377</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8459414120797076</v>
+        <v>0.8423539110181749</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9132092555455021</v>
+        <v>0.9121275020579336</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5200</v>
+        <v>6195</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006364021952821828</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03198693115520629</v>
+        <v>0.03811018826331933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6858</v>
+        <v>6783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01111111330952523</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03368282933833303</v>
+        <v>0.03331704781825052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1074,19 +1074,19 @@
         <v>3297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9371</v>
+        <v>9575</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009003617165065668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002817160219784622</v>
+        <v>0.002809180460269658</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.025591897188836</v>
+        <v>0.0261507926331112</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>10361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5926</v>
+        <v>5243</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17690</v>
+        <v>17464</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06373737164462422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03645788691527789</v>
+        <v>0.03225502783080821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.108823142940708</v>
+        <v>0.1074322273151474</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1124,19 +1124,19 @@
         <v>10319</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4599</v>
+        <v>4827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17778</v>
+        <v>18343</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0506836706164254</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02258854122578468</v>
+        <v>0.02370695744897573</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0873178640612271</v>
+        <v>0.09009467758598999</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -1145,19 +1145,19 @@
         <v>20680</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13183</v>
+        <v>13743</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29935</v>
+        <v>31382</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05647892975948125</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03600536027423069</v>
+        <v>0.03753387954883661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08175503182983836</v>
+        <v>0.08570643518802414</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>151160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143742</v>
+        <v>143516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155792</v>
+        <v>156368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.929898606402554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.884266728322549</v>
+        <v>0.8828763047216687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9583933820616389</v>
+        <v>0.9619387055420032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -1195,19 +1195,19 @@
         <v>191016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182151</v>
+        <v>182605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196885</v>
+        <v>196676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9382052160740494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8946635695196344</v>
+        <v>0.8968952518402313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.96703378978846</v>
+        <v>0.9660084068459229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>347</v>
@@ -1216,19 +1216,19 @@
         <v>342176</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>331143</v>
+        <v>330714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349711</v>
+        <v>349884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9345174530754531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9043833708352085</v>
+        <v>0.9032132482232273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9550956207326509</v>
+        <v>0.955566788667953</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4630</v>
+        <v>5502</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006347321898314039</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03194714373124798</v>
+        <v>0.03796595134227401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4789</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1179</v>
+        <v>1216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10888</v>
+        <v>11177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03278509875171841</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00807066337912639</v>
+        <v>0.008327305139882699</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07453791395499874</v>
+        <v>0.07651640402711651</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1362,19 +1362,19 @@
         <v>5709</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1265</v>
+        <v>2055</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12449</v>
+        <v>12555</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01961848907270912</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004347610850225354</v>
+        <v>0.007062207866164763</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04278102384426696</v>
+        <v>0.04314716366933938</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>5571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1931</v>
+        <v>2069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11154</v>
+        <v>11420</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03844372709406023</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01332509717551295</v>
+        <v>0.01427466866843621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07696790912972858</v>
+        <v>0.07880350942509418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1412,19 +1412,19 @@
         <v>6353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2257</v>
+        <v>2627</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12896</v>
+        <v>13233</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04349076836898837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01545169885813711</v>
+        <v>0.01798771613100649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08829086369227754</v>
+        <v>0.09059556161643668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1433,19 +1433,19 @@
         <v>11924</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6257</v>
+        <v>6486</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19891</v>
+        <v>19739</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04097722788223328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02150262999045689</v>
+        <v>0.02229129150941971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06835842792589503</v>
+        <v>0.06783625684049117</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>138425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132572</v>
+        <v>132128</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142377</v>
+        <v>142164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9552089510076257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9148219733213026</v>
+        <v>0.9117584032158037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9824787002262027</v>
+        <v>0.9810108754806154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -1483,19 +1483,19 @@
         <v>134926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127100</v>
+        <v>126855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140575</v>
+        <v>140194</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9237241328792932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8701457378428021</v>
+        <v>0.8684708700806275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.962398969565587</v>
+        <v>0.9597932256302081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>267</v>
@@ -1504,19 +1504,19 @@
         <v>273352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263469</v>
+        <v>264188</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>280681</v>
+        <v>280518</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9394042830450576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.905439988535874</v>
+        <v>0.9079109680154247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.96459121467298</v>
+        <v>0.9640332007132688</v>
       </c>
     </row>
     <row r="15">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6503</v>
+        <v>6296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03364328959593441</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.165751844333801</v>
+        <v>0.1604783255047342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5394</v>
+        <v>7583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01490226340905244</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06089357205775122</v>
+        <v>0.08561560550510462</v>
       </c>
     </row>
     <row r="17">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3419</v>
+        <v>4187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01664710576174953</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06929085484464073</v>
+        <v>0.08485674660995303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1692,19 +1692,19 @@
         <v>2904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7494</v>
+        <v>7467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07401924567846316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01858210942239019</v>
+        <v>0.01813682311873023</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1910135242318508</v>
+        <v>0.190323947541942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1713,19 +1713,19 @@
         <v>3726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8915</v>
+        <v>8838</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04206004104983731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01182558039701848</v>
+        <v>0.01242630035157775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1006430381547761</v>
+        <v>0.09977912044410306</v>
       </c>
     </row>
     <row r="18">
@@ -1742,7 +1742,7 @@
         <v>48521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45923</v>
+        <v>45155</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>49342</v>
@@ -1751,7 +1751,7 @@
         <v>0.9833528942382505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9307091451553592</v>
+        <v>0.9151432533900468</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1763,19 +1763,19 @@
         <v>35011</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30264</v>
+        <v>29571</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38191</v>
+        <v>38113</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8923374647256024</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7713621266704953</v>
+        <v>0.753677732371582</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9733974987657356</v>
+        <v>0.9714099003144292</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>86</v>
@@ -1784,19 +1784,19 @@
         <v>83531</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>77749</v>
+        <v>77931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86761</v>
+        <v>86919</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9430376955411103</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8777626334676472</v>
+        <v>0.8798242935378567</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9795053063532901</v>
+        <v>0.981298313897993</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>5692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1958</v>
+        <v>2304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11583</v>
+        <v>12216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01171749942477383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004029550998566261</v>
+        <v>0.004741931445569047</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02384226977599922</v>
+        <v>0.02514499548372969</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1909,19 +1909,19 @@
         <v>21556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13694</v>
+        <v>13177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33329</v>
+        <v>32463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03260583010220549</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02071393884022138</v>
+        <v>0.01993114942516419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05041290008641495</v>
+        <v>0.04910320714201879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1930,19 +1930,19 @@
         <v>27249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18157</v>
+        <v>18340</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40540</v>
+        <v>39571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02375806843573492</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0158308053258833</v>
+        <v>0.01599056676237043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03534675243851248</v>
+        <v>0.03450223609090496</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>25939</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17369</v>
+        <v>17444</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35745</v>
+        <v>36650</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05339425675341888</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03575362138635171</v>
+        <v>0.03590736360040173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07357837607777327</v>
+        <v>0.07544134225404006</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -1980,19 +1980,19 @@
         <v>40255</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28979</v>
+        <v>28789</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54738</v>
+        <v>54010</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06089015135698829</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04383374401752695</v>
+        <v>0.04354647210646344</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08279744762009685</v>
+        <v>0.08169592110252336</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -2001,19 +2001,19 @@
         <v>66194</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52175</v>
+        <v>50492</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82741</v>
+        <v>81835</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05771508246548415</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0454919271472649</v>
+        <v>0.04402375928256888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07214259515309916</v>
+        <v>0.07135219328375077</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>454172</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>443433</v>
+        <v>442117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>463546</v>
+        <v>462789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9348882438218072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9127822571350389</v>
+        <v>0.9100735064418062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.954182512517209</v>
+        <v>0.9526245531538328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>589</v>
@@ -2051,19 +2051,19 @@
         <v>599301</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>582005</v>
+        <v>582398</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>612636</v>
+        <v>612474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9065040185408062</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8803425720012406</v>
+        <v>0.8809365102430529</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9266750213060767</v>
+        <v>0.9264298618478892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1060</v>
@@ -2072,19 +2072,19 @@
         <v>1053473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1035039</v>
+        <v>1034816</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1071651</v>
+        <v>1069641</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9185268490987809</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9024536514745829</v>
+        <v>0.9022600555167745</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9343761054572562</v>
+        <v>0.9326240395113782</v>
       </c>
     </row>
     <row r="23">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7372</v>
+        <v>6546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01548889640694353</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05360267821267356</v>
+        <v>0.04759933173301233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2437,19 +2437,19 @@
         <v>17450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10132</v>
+        <v>10488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28110</v>
+        <v>27457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08092540652788026</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04698490165763872</v>
+        <v>0.04863881362366821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1303581390783133</v>
+        <v>0.1273324865875988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2458,19 +2458,19 @@
         <v>19580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12498</v>
+        <v>12248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29917</v>
+        <v>30944</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05544260113509066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03538760518757115</v>
+        <v>0.03468141175533127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08471104210034022</v>
+        <v>0.08761996569325392</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>13953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7723</v>
+        <v>7567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22843</v>
+        <v>22129</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1014537055588634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0561507933152104</v>
+        <v>0.05501836137208205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1660943050740861</v>
+        <v>0.160897487717281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -2508,19 +2508,19 @@
         <v>24691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16406</v>
+        <v>16277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34883</v>
+        <v>35160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1145047218566049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07608199419297787</v>
+        <v>0.07548580661816257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1617713132567563</v>
+        <v>0.1630542472861035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -2529,19 +2529,19 @@
         <v>38644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26835</v>
+        <v>27606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50136</v>
+        <v>51136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.109422291453779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07598527103057182</v>
+        <v>0.07816563071104878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1419602103839423</v>
+        <v>0.1447926979800459</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>121450</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111451</v>
+        <v>112515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127807</v>
+        <v>128036</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.883057398034193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8103569638477852</v>
+        <v>0.8180922725061541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9292815252046925</v>
+        <v>0.9309473328172517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>162</v>
@@ -2579,19 +2579,19 @@
         <v>173493</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159797</v>
+        <v>158917</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184843</v>
+        <v>183471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8045698716155149</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7410584215807702</v>
+        <v>0.7369766252523066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8572069998601978</v>
+        <v>0.8508426303511744</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>270</v>
@@ -2600,19 +2600,19 @@
         <v>294942</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>279368</v>
+        <v>279345</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308128</v>
+        <v>308022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8351351074111304</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7910371470877514</v>
+        <v>0.7909708170609598</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8724703787435037</v>
+        <v>0.8721713271076791</v>
       </c>
     </row>
     <row r="7">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6410</v>
+        <v>7508</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01215398535603622</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03716301745869239</v>
+        <v>0.04353501761460256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -2725,19 +2725,19 @@
         <v>10927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5474</v>
+        <v>6440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18568</v>
+        <v>19641</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04422604041908922</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02215716243009994</v>
+        <v>0.02606392922844478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07515455838314067</v>
+        <v>0.07949611368671773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -2746,19 +2746,19 @@
         <v>13023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6556</v>
+        <v>7535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21552</v>
+        <v>22272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03104135110052182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01562567049436674</v>
+        <v>0.0179605871899552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05137042150550011</v>
+        <v>0.05308725561111485</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>18308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10732</v>
+        <v>10676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30894</v>
+        <v>31433</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1061489236776222</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06222408227473046</v>
+        <v>0.0618988203161154</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1791277752888596</v>
+        <v>0.1822548028413682</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -2796,19 +2796,19 @@
         <v>27187</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18830</v>
+        <v>18051</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39848</v>
+        <v>38122</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1100403442995463</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07621541985159011</v>
+        <v>0.0730607504167054</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1612846927979913</v>
+        <v>0.1542971568512784</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -2817,19 +2817,19 @@
         <v>45495</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33777</v>
+        <v>33256</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>60384</v>
+        <v>60142</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1084405973607528</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08050944060918638</v>
+        <v>0.07926896527714036</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1439296687538474</v>
+        <v>0.1433525136412323</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>152066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138688</v>
+        <v>139679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159853</v>
+        <v>160507</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8816970909663416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8041296392719267</v>
+        <v>0.8098762589341216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9268425340682592</v>
+        <v>0.9306348702963476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -2867,19 +2867,19 @@
         <v>208953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196367</v>
+        <v>196781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220444</v>
+        <v>219646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8457336152813645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7947916316442075</v>
+        <v>0.7964673874521356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8922433504460107</v>
+        <v>0.8890155734874675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -2888,19 +2888,19 @@
         <v>361018</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>344047</v>
+        <v>345841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>374286</v>
+        <v>374685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8605180515387254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8200662345779257</v>
+        <v>0.8243421480961549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8921432863206596</v>
+        <v>0.8930933592441254</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>4081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9526</v>
+        <v>9923</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02455126791904256</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00612158926883435</v>
+        <v>0.006146669860906406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05730459610043372</v>
+        <v>0.05969470678877901</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3013,19 +3013,19 @@
         <v>10807</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5186</v>
+        <v>5361</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20435</v>
+        <v>19776</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05626425679812223</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02700260801709405</v>
+        <v>0.0279097436730207</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1063954046111166</v>
+        <v>0.1029604358666736</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3034,19 +3034,19 @@
         <v>14888</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8319</v>
+        <v>7775</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24573</v>
+        <v>25071</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04155110911049766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02321664950462819</v>
+        <v>0.02169856294469466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06858210279310856</v>
+        <v>0.06997173858951074</v>
       </c>
     </row>
     <row r="13">
@@ -3063,19 +3063,19 @@
         <v>6267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2932</v>
+        <v>2104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13339</v>
+        <v>12610</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03769837155948606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01763765182904705</v>
+        <v>0.01265433179707067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0802396194588203</v>
+        <v>0.07585757184695517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3084,19 +3084,19 @@
         <v>16541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9432</v>
+        <v>9882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26424</v>
+        <v>27024</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08611994554771185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04910912686056677</v>
+        <v>0.05144906383500175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1375751449839116</v>
+        <v>0.140698476896448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3105,19 +3105,19 @@
         <v>22808</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15046</v>
+        <v>14541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35708</v>
+        <v>33917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06365489906242196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04199066292190219</v>
+        <v>0.0405832789125358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09965768316098339</v>
+        <v>0.0946595846797007</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>155887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147734</v>
+        <v>148276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160972</v>
+        <v>161090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9377503605214714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8887042903622442</v>
+        <v>0.8919634065697947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9683396746893297</v>
+        <v>0.9690491185944479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -3155,19 +3155,19 @@
         <v>164723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152969</v>
+        <v>152653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174318</v>
+        <v>173949</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.857615797654166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7964203005555525</v>
+        <v>0.7947760191912011</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9075707495611458</v>
+        <v>0.905652076124653</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>296</v>
@@ -3176,19 +3176,19 @@
         <v>320610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306943</v>
+        <v>306158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331262</v>
+        <v>331873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8947939918270804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.856649302090319</v>
+        <v>0.8544592308472961</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9245225711457681</v>
+        <v>0.9262274275708032</v>
       </c>
     </row>
     <row r="15">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3301,19 +3301,19 @@
         <v>6371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12754</v>
+        <v>12868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07490440509517454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02589352830553205</v>
+        <v>0.02571080726765804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1499632222079121</v>
+        <v>0.1512975521130331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3322,19 +3322,19 @@
         <v>7403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3203</v>
+        <v>3073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13242</v>
+        <v>13768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0453754886238277</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01963231341159755</v>
+        <v>0.01883794054262243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08116461504588576</v>
+        <v>0.08439004316539346</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>6560</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2079</v>
+        <v>2215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15661</v>
+        <v>15779</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08399457734952843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02662441145849445</v>
+        <v>0.02836520412540203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2005328125719485</v>
+        <v>0.2020454468849017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3372,19 +3372,19 @@
         <v>6408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2260</v>
+        <v>2313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12103</v>
+        <v>13249</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07534787191929018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02656802971501462</v>
+        <v>0.02719043365463221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1423092470763245</v>
+        <v>0.1557748178851961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3393,19 +3393,19 @@
         <v>12968</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6319</v>
+        <v>6484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23171</v>
+        <v>23034</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07948696245572723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03873017529620208</v>
+        <v>0.03974177399175764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1420286798356559</v>
+        <v>0.1411873392719901</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>70505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60701</v>
+        <v>61668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75685</v>
+        <v>75707</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9027879606540663</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7772461598317678</v>
+        <v>0.789634228973901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9691186816694958</v>
+        <v>0.9693944606599009</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -3443,19 +3443,19 @@
         <v>72271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64281</v>
+        <v>64615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77738</v>
+        <v>78212</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8497477229855352</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7558006672723983</v>
+        <v>0.7597248413275451</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9140226977717721</v>
+        <v>0.9195963157495884</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -3464,19 +3464,19 @@
         <v>142775</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131453</v>
+        <v>132316</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>150573</v>
+        <v>151414</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.875137548920445</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8057408315962523</v>
+        <v>0.8110284096197813</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9229367064863855</v>
+        <v>0.9280871529228371</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>9340</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4289</v>
+        <v>4180</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16594</v>
+        <v>16416</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01684894319331033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007736725953828005</v>
+        <v>0.007540451619556817</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02993546345365819</v>
+        <v>0.02961352501560089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -3589,19 +3589,19 @@
         <v>45554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34322</v>
+        <v>33440</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61458</v>
+        <v>60129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06157483429976571</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04639242250967662</v>
+        <v>0.04520060668861093</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08307095237227176</v>
+        <v>0.08127460652585219</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -3610,19 +3610,19 @@
         <v>54894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41005</v>
+        <v>41843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>72091</v>
+        <v>70796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04241709697645718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03168442375557635</v>
+        <v>0.03233245315320341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05570539633289989</v>
+        <v>0.05470424196508284</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>45087</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31549</v>
+        <v>30553</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62248</v>
+        <v>61694</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08133573536265234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05691297830044249</v>
+        <v>0.05511580434253736</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1122925257038671</v>
+        <v>0.1112936575379218</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -3660,19 +3660,19 @@
         <v>74828</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59832</v>
+        <v>59669</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93898</v>
+        <v>92419</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1011431504152748</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08087296273612586</v>
+        <v>0.08065287862115204</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1269204174739104</v>
+        <v>0.1249201710739773</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -3681,19 +3681,19 @@
         <v>119915</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99585</v>
+        <v>98827</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>143751</v>
+        <v>142141</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09265890906771408</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07694985020514916</v>
+        <v>0.07636408432883007</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1110768323543079</v>
+        <v>0.1098333353551461</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>499907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>481071</v>
+        <v>483314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>515686</v>
+        <v>515463</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9018153214440373</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8678363525794374</v>
+        <v>0.8718826972365317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9302805218906633</v>
+        <v>0.9298772484932608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>580</v>
@@ -3731,19 +3731,19 @@
         <v>619439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>598407</v>
+        <v>600147</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>638494</v>
+        <v>639645</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8372820152849595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8088538457491663</v>
+        <v>0.8112054763131911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8630390844075878</v>
+        <v>0.8645937790823059</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1034</v>
@@ -3752,19 +3752,19 @@
         <v>1119346</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1091476</v>
+        <v>1092471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1143929</v>
+        <v>1144224</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8649239939558288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8433890645944868</v>
+        <v>0.8441579640121148</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8839195721274407</v>
+        <v>0.8841478661392167</v>
       </c>
     </row>
     <row r="23">
@@ -4099,16 +4099,16 @@
         <v>859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8542</v>
+        <v>7810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02071983877162617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005162697811060316</v>
+        <v>0.00516248109779838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05131718582707033</v>
+        <v>0.046920943821311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4117,19 +4117,19 @@
         <v>12461</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6085</v>
+        <v>6415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20859</v>
+        <v>21910</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0478585048155014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02337044624711409</v>
+        <v>0.02463613076872738</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08011037707332767</v>
+        <v>0.08414774990652828</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4138,19 +4138,19 @@
         <v>15910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8631</v>
+        <v>9370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25567</v>
+        <v>25736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03727507103594234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02022172516102323</v>
+        <v>0.02195140103834368</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05989967932779444</v>
+        <v>0.06029651174852394</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>16327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9629</v>
+        <v>9979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24913</v>
+        <v>25336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09808763601112495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05784632973943669</v>
+        <v>0.05995015373692317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1496673567379289</v>
+        <v>0.1522100117189684</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4188,19 +4188,19 @@
         <v>29985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20593</v>
+        <v>19679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42972</v>
+        <v>42767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1151577401129726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07908910870735011</v>
+        <v>0.07557745055204337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1650388606687366</v>
+        <v>0.1642504508807574</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -4209,19 +4209,19 @@
         <v>46312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33882</v>
+        <v>34428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60549</v>
+        <v>61584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1085008058303513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07938123732854757</v>
+        <v>0.08066002696562248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1418578857730075</v>
+        <v>0.1442814749718735</v>
       </c>
     </row>
     <row r="6">
@@ -4238,19 +4238,19 @@
         <v>146678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137583</v>
+        <v>137452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153635</v>
+        <v>153616</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8811925252172489</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8265526546504636</v>
+        <v>0.8257673454864125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9229863582863406</v>
+        <v>0.9228708028452667</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>186</v>
@@ -4259,19 +4259,19 @@
         <v>217932</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>203842</v>
+        <v>204538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229509</v>
+        <v>230350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.836983755071526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7828687755991922</v>
+        <v>0.7855418186430346</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8814448369468978</v>
+        <v>0.8846753443014337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>341</v>
@@ -4280,19 +4280,19 @@
         <v>364610</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>349367</v>
+        <v>347407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>379623</v>
+        <v>378156</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8542241231337063</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8185123081676429</v>
+        <v>0.8139208375519037</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8893957497409275</v>
+        <v>0.885959484409623</v>
       </c>
     </row>
     <row r="7">
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6089</v>
+        <v>5875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0114506949215087</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03586605952017505</v>
+        <v>0.03460730936598326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -4405,19 +4405,19 @@
         <v>6756</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2287</v>
+        <v>2525</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13780</v>
+        <v>14085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03059785471476998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01035743112516548</v>
+        <v>0.01143736897701624</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06240622793181892</v>
+        <v>0.06378950392669198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -4426,19 +4426,19 @@
         <v>8700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3975</v>
+        <v>3874</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17311</v>
+        <v>16314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02227540278082184</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01017855545589608</v>
+        <v>0.00991954201510346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04432353888091228</v>
+        <v>0.04176963696013637</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>7582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3923</v>
+        <v>3558</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14517</v>
+        <v>13770</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04466342972179523</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02310761735787167</v>
+        <v>0.02095771621390934</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08551347702257854</v>
+        <v>0.08111493215943483</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -4476,19 +4476,19 @@
         <v>18337</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11065</v>
+        <v>10449</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28646</v>
+        <v>28171</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0830443345761136</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05011091745288416</v>
+        <v>0.04732158987088349</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1297340573996633</v>
+        <v>0.1275815839159359</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -4497,19 +4497,19 @@
         <v>25919</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16529</v>
+        <v>16530</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37435</v>
+        <v>37078</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06636179579331615</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04232151881707052</v>
+        <v>0.0423234689615137</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09584663760752046</v>
+        <v>0.09493436669375466</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>160237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152314</v>
+        <v>154139</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164670</v>
+        <v>164746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9438858753566961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8972171922518365</v>
+        <v>0.9079665517427785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9700021018161802</v>
+        <v>0.970444857877391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -4547,19 +4547,19 @@
         <v>195712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184203</v>
+        <v>184009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204857</v>
+        <v>204314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8863578107091165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8342336757699362</v>
+        <v>0.833355475652683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9277717439362999</v>
+        <v>0.9253157088835363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>339</v>
@@ -4568,19 +4568,19 @@
         <v>355949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342976</v>
+        <v>343788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>366454</v>
+        <v>366973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.911362801425862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8781464401717972</v>
+        <v>0.8802254204011101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9382604036563027</v>
+        <v>0.939588658204689</v>
       </c>
     </row>
     <row r="11">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6208</v>
+        <v>6213</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01120408687330208</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03985224820531291</v>
+        <v>0.0398834164475806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4693,19 +4693,19 @@
         <v>10574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4292</v>
+        <v>4786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19468</v>
+        <v>19442</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05743383382349951</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02331413934611388</v>
+        <v>0.02599483290431721</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1057447698346861</v>
+        <v>0.1056040891380604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4714,19 +4714,19 @@
         <v>12319</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6170</v>
+        <v>6363</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21683</v>
+        <v>21805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03624598653911976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01815368957078372</v>
+        <v>0.01872035801114223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0637954627827558</v>
+        <v>0.06415593189185095</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>5278</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2047</v>
+        <v>2376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11039</v>
+        <v>11494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03388472504655918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01313940039675805</v>
+        <v>0.01525037716695672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07086922745864979</v>
+        <v>0.07378967763565161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4764,19 +4764,19 @@
         <v>17784</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10733</v>
+        <v>10495</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26866</v>
+        <v>27156</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09659809130671199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05830056448358369</v>
+        <v>0.05700555848525074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1459250763874663</v>
+        <v>0.1475019563456261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -4785,19 +4785,19 @@
         <v>23063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14951</v>
+        <v>14910</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34718</v>
+        <v>34110</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06785553235563348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04398878813149402</v>
+        <v>0.04386802053661358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1021499516912642</v>
+        <v>0.1003585696947446</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>148747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142273</v>
+        <v>142398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152608</v>
+        <v>152434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9549111880801388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9133467188760858</v>
+        <v>0.9141476868073978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9796919137174709</v>
+        <v>0.9785752100836891</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -4835,19 +4835,19 @@
         <v>155748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>144135</v>
+        <v>142985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165848</v>
+        <v>164952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8459680748697885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7828923468179234</v>
+        <v>0.7766427114044471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9008274197029527</v>
+        <v>0.8959646280623673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>287</v>
@@ -4856,19 +4856,19 @@
         <v>304495</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289789</v>
+        <v>291563</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>315040</v>
+        <v>315001</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8958984811052467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8526302530423587</v>
+        <v>0.8578489142872006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9269244469145835</v>
+        <v>0.9268095380886999</v>
       </c>
     </row>
     <row r="15">
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6060</v>
+        <v>6044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01938762741987162</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06890798275958072</v>
+        <v>0.0687299947114083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4981,19 +4981,19 @@
         <v>4683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14746</v>
+        <v>13722</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04395614998772403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01146473997923269</v>
+        <v>0.01147186994130567</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1384125142222332</v>
+        <v>0.1288028494409695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5002,19 +5002,19 @@
         <v>6388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2113</v>
+        <v>2218</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14874</v>
+        <v>16035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03284616578397784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.010865780100945</v>
+        <v>0.01140304359357178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07648092599442448</v>
+        <v>0.08244769271959314</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>9154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4632</v>
+        <v>4439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16613</v>
+        <v>16126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1040823758096432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05267097853705577</v>
+        <v>0.05047693358301667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1888983846645609</v>
+        <v>0.1833653332088492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5052,19 +5052,19 @@
         <v>11550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6016</v>
+        <v>5539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20181</v>
+        <v>20032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1084100345570197</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05646487849799914</v>
+        <v>0.05199270493307859</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1894299596404634</v>
+        <v>0.188030190994168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -5073,19 +5073,19 @@
         <v>20703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12374</v>
+        <v>13529</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30144</v>
+        <v>31115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1064530499565102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06362563507252236</v>
+        <v>0.06956715319583628</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1549947355975199</v>
+        <v>0.1599888507858592</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>77086</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>69072</v>
+        <v>69928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81934</v>
+        <v>82062</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8765299967704852</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7853979188439492</v>
+        <v>0.7951328071101016</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9316475380815408</v>
+        <v>0.9331014184239658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -5123,19 +5123,19 @@
         <v>90304</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80383</v>
+        <v>80700</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97439</v>
+        <v>98448</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8476338154552562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7545174764332964</v>
+        <v>0.757489853701745</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9146082064274801</v>
+        <v>0.9240830861446281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>155</v>
@@ -5144,19 +5144,19 @@
         <v>167390</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156062</v>
+        <v>155887</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176438</v>
+        <v>176502</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8607007842595119</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8024511685567948</v>
+        <v>0.8015539844473575</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9072254588626193</v>
+        <v>0.9075559627222937</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>8843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4449</v>
+        <v>4329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15857</v>
+        <v>15229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01524852221587975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007672280647053147</v>
+        <v>0.007465028749045581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02734332014637397</v>
+        <v>0.02626011789294927</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -5269,19 +5269,19 @@
         <v>34474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22823</v>
+        <v>23534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50020</v>
+        <v>49322</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04466593825504456</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02957000770864203</v>
+        <v>0.0304913649370261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06480729962277063</v>
+        <v>0.06390336447488836</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -5290,19 +5290,19 @@
         <v>43317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30589</v>
+        <v>30831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58692</v>
+        <v>59824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03204522182519595</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02262916298560758</v>
+        <v>0.02280835452649898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04341919079874424</v>
+        <v>0.04425660780271587</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>38341</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28508</v>
+        <v>27874</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50755</v>
+        <v>52102</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06611291434179037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04915763396894974</v>
+        <v>0.04806486059537929</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08751827186470569</v>
+        <v>0.08984086780979723</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -5340,19 +5340,19 @@
         <v>77655</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59912</v>
+        <v>60464</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>97053</v>
+        <v>97995</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.10061219023031</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07762453632068407</v>
+        <v>0.07833886966216032</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1257447240893141</v>
+        <v>0.1269660556546438</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -5361,19 +5361,19 @@
         <v>115996</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95922</v>
+        <v>95528</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137090</v>
+        <v>140735</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08581124451011335</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07096109796565553</v>
+        <v>0.07066970420049459</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1014163837157366</v>
+        <v>0.1041125226668567</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>532750</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>518605</v>
+        <v>518485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>543988</v>
+        <v>544244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9186385634423299</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.894247889334374</v>
+        <v>0.8940421706579099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9380168976249673</v>
+        <v>0.9384584883149064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>558</v>
@@ -5411,19 +5411,19 @@
         <v>659695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>637062</v>
+        <v>636482</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>680056</v>
+        <v>678521</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8547218715146455</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8253978193061017</v>
+        <v>0.8246460545313498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8811026477371814</v>
+        <v>0.8791139165517817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1122</v>
@@ -5432,19 +5432,19 @@
         <v>1192445</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1169519</v>
+        <v>1164394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1217948</v>
+        <v>1216277</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8821435336646907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8651834286960259</v>
+        <v>0.8613926950779498</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9010104764107967</v>
+        <v>0.8997744718964519</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>2149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5706</v>
+        <v>5796</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03193655351464136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007422560310259844</v>
+        <v>0.007452827684014247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08481045691099234</v>
+        <v>0.08614404860981358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -5797,19 +5797,19 @@
         <v>14533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9404</v>
+        <v>9515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20481</v>
+        <v>21034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1016167497127533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0657570640713665</v>
+        <v>0.06653461515655866</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1432133104092951</v>
+        <v>0.1470785501317043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5818,19 +5818,19 @@
         <v>16681</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11276</v>
+        <v>11564</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23956</v>
+        <v>23876</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0793242781165015</v>
+        <v>0.07932427811650151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05362094892235313</v>
+        <v>0.054992114869568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1139180165533243</v>
+        <v>0.1135393405678791</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>6486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3146</v>
+        <v>3127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11970</v>
+        <v>11110</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09641085279879971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04676682432144286</v>
+        <v>0.04648211168936293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1779252938108078</v>
+        <v>0.1651339435078326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -5868,19 +5868,19 @@
         <v>23242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16698</v>
+        <v>17367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30625</v>
+        <v>31396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1625167251291782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1167599967431753</v>
+        <v>0.1214345224830978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2141425920676841</v>
+        <v>0.2195292725227026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -5889,19 +5889,19 @@
         <v>29728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22527</v>
+        <v>22423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38493</v>
+        <v>38610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1413677708828304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1071214551706168</v>
+        <v>0.1066282762352694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1830491409571563</v>
+        <v>0.1836013108596906</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>58642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53079</v>
+        <v>53362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62446</v>
+        <v>62342</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.871652593686559</v>
+        <v>0.8716525936865591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7889569598570294</v>
+        <v>0.7931695185181208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9281852878589828</v>
+        <v>0.9266392986446303</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>202</v>
@@ -5939,19 +5939,19 @@
         <v>105238</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97320</v>
+        <v>95344</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113058</v>
+        <v>112144</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7358665251580685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6805007126448988</v>
+        <v>0.6666810373943883</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.790542344418568</v>
+        <v>0.7841543207266891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -5960,19 +5960,19 @@
         <v>163881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154137</v>
+        <v>152754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>173036</v>
+        <v>172461</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7793079510006682</v>
+        <v>0.7793079510006681</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7329714823847123</v>
+        <v>0.7263980392833211</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8228457287163382</v>
+        <v>0.8201096425329756</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>8631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4850</v>
+        <v>4945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14090</v>
+        <v>14998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04287408258423663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02409109004161971</v>
+        <v>0.0245634456528814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06999311828862698</v>
+        <v>0.07450569504176613</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -6085,19 +6085,19 @@
         <v>16156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11301</v>
+        <v>11242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22518</v>
+        <v>22261</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0535464128072067</v>
+        <v>0.05354641280720672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03745496393813533</v>
+        <v>0.0372597744032785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07462870356617726</v>
+        <v>0.07377969704334593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -6106,19 +6106,19 @@
         <v>24787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18591</v>
+        <v>17776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33447</v>
+        <v>32744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04927554695888169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03695796509627956</v>
+        <v>0.03533763742120607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06649150482673434</v>
+        <v>0.06509360781581752</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>9592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5370</v>
+        <v>5479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15130</v>
+        <v>15080</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04765137919147972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02667438962429028</v>
+        <v>0.02721717125647885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07516112077810382</v>
+        <v>0.07490955430264461</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -6156,19 +6156,19 @@
         <v>28492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21939</v>
+        <v>21493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37345</v>
+        <v>36846</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09443035031639978</v>
+        <v>0.09443035031639982</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07270961767407713</v>
+        <v>0.07123350992494538</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1237709089877118</v>
+        <v>0.122116089576689</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -6177,19 +6177,19 @@
         <v>38085</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30006</v>
+        <v>30207</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>47606</v>
+        <v>49390</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07571028581097421</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05965059885850375</v>
+        <v>0.06005051169440449</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09463853579168008</v>
+        <v>0.09818389183479566</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>183081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>176027</v>
+        <v>176268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189711</v>
+        <v>189196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9094745382242837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8744320638876837</v>
+        <v>0.875629023021416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9424116697522216</v>
+        <v>0.939851284696719</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>484</v>
@@ -6227,19 +6227,19 @@
         <v>257079</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>248439</v>
+        <v>247894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265893</v>
+        <v>265655</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8520232368763933</v>
+        <v>0.8520232368763936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8233866283253782</v>
+        <v>0.8215794473393847</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8812350901501674</v>
+        <v>0.8804453133944001</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>749</v>
@@ -6248,19 +6248,19 @@
         <v>440161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>428866</v>
+        <v>428195</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>450322</v>
+        <v>450920</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.875014167230144</v>
+        <v>0.8750141672301439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8525609715743457</v>
+        <v>0.8512272983824939</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8952127867114951</v>
+        <v>0.8964029748557731</v>
       </c>
     </row>
     <row r="11">
@@ -6352,19 +6352,19 @@
         <v>3655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7228</v>
+        <v>7573</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01594058072550748</v>
+        <v>0.01594058072550749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007000465359936973</v>
+        <v>0.006932189696551417</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0315221098708347</v>
+        <v>0.03302471016132307</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6373,19 +6373,19 @@
         <v>9733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5887</v>
+        <v>5591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14944</v>
+        <v>16137</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04115469032341407</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02488920052509465</v>
+        <v>0.02363868828925263</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06318579188676801</v>
+        <v>0.06823175770960967</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -6394,19 +6394,19 @@
         <v>13389</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8938</v>
+        <v>8740</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19772</v>
+        <v>20025</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02874234404564297</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01918723369705026</v>
+        <v>0.01876209625078262</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04244561595086084</v>
+        <v>0.04298777247060852</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>15947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10566</v>
+        <v>10196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23631</v>
+        <v>23702</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06954327198009909</v>
+        <v>0.06954327198009912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04607563211625521</v>
+        <v>0.04446434745204689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1030529400160955</v>
+        <v>0.1033589819180559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -6444,19 +6444,19 @@
         <v>22024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16188</v>
+        <v>16277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29391</v>
+        <v>29887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09312270836427226</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06844453930263146</v>
+        <v>0.06882180197040633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1242695547485392</v>
+        <v>0.1263655707192367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -6465,19 +6465,19 @@
         <v>37972</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29353</v>
+        <v>29444</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47635</v>
+        <v>48459</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08151507541183473</v>
+        <v>0.08151507541183471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06301313255505361</v>
+        <v>0.0632077974780694</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1022596824182729</v>
+        <v>0.1040281845920347</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>209711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201964</v>
+        <v>202155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216219</v>
+        <v>216085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9145161472943935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8807304666820249</v>
+        <v>0.8815634654244102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.942893033721433</v>
+        <v>0.9423096076475209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>390</v>
@@ -6515,19 +6515,19 @@
         <v>204751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196618</v>
+        <v>195853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211579</v>
+        <v>211513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8657226013123137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8313353440478413</v>
+        <v>0.8280986129835026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8945900503138279</v>
+        <v>0.8943120348754967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -6536,19 +6536,19 @@
         <v>414463</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>403971</v>
+        <v>402464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>424556</v>
+        <v>424777</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8897425805425224</v>
+        <v>0.8897425805425222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.867220594827026</v>
+        <v>0.8639840748851382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9114106533263417</v>
+        <v>0.9118860501183266</v>
       </c>
     </row>
     <row r="15">
@@ -6640,19 +6640,19 @@
         <v>3259</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1385</v>
+        <v>1267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7162</v>
+        <v>6996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01536037438600774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006528491091212801</v>
+        <v>0.005971692794505933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03375080520659385</v>
+        <v>0.03297009495392135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6661,19 +6661,19 @@
         <v>2936</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10819</v>
+        <v>10432</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0141333124945709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002110708647710874</v>
+        <v>0.002121175185766355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05207687871801977</v>
+        <v>0.05021298387281623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6682,19 +6682,19 @@
         <v>6196</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2795</v>
+        <v>2896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12994</v>
+        <v>13659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01475332034570536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006655385757441895</v>
+        <v>0.006895979499600545</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03094068754501189</v>
+        <v>0.03252432553346597</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>25856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18105</v>
+        <v>18525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35201</v>
+        <v>34099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1218520244168158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08532288515336406</v>
+        <v>0.08730069534391158</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1658908869195491</v>
+        <v>0.1606990892921492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -6732,19 +6732,19 @@
         <v>31364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24301</v>
+        <v>24135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39421</v>
+        <v>40219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1509627090615351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1169650845299798</v>
+        <v>0.1161684562528292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1897425739838306</v>
+        <v>0.1935840279093623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -6753,19 +6753,19 @@
         <v>57220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45763</v>
+        <v>46426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68172</v>
+        <v>69076</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1362537093300783</v>
+        <v>0.1362537093300784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1089712497638229</v>
+        <v>0.1105506666009398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1623319219040444</v>
+        <v>0.1644859078668064</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>183077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173626</v>
+        <v>173745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190960</v>
+        <v>190680</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8627876011971765</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8182464412191781</v>
+        <v>0.8188044711127653</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8999339580751906</v>
+        <v>0.8986157636776787</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>333</v>
@@ -6803,19 +6803,19 @@
         <v>173459</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>164281</v>
+        <v>164816</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>180722</v>
+        <v>181179</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8349039784438941</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7907303318467601</v>
+        <v>0.7933045806345315</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8698640371829499</v>
+        <v>0.8720636928850944</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>593</v>
@@ -6824,19 +6824,19 @@
         <v>356536</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>344417</v>
+        <v>343411</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>367884</v>
+        <v>367944</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8489929703242163</v>
+        <v>0.8489929703242164</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8201352258049504</v>
+        <v>0.8177381764606257</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8760151885065536</v>
+        <v>0.8761582524095628</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>17694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11802</v>
+        <v>12654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25424</v>
+        <v>24849</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02491815490452262</v>
+        <v>0.02491815490452263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01662087697947453</v>
+        <v>0.01781973625820089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03580380728819241</v>
+        <v>0.03499376332549226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -6949,19 +6949,19 @@
         <v>43359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34640</v>
+        <v>34915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54468</v>
+        <v>55046</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04877195995636659</v>
+        <v>0.04877195995636658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.038964693763663</v>
+        <v>0.03927395604376722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06126822318600112</v>
+        <v>0.06191828505085963</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -6970,19 +6970,19 @@
         <v>61053</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50360</v>
+        <v>49974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73130</v>
+        <v>72923</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03817954205991567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03149251859172791</v>
+        <v>0.03125121488039228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04573189332000002</v>
+        <v>0.04560256343574117</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>57882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46055</v>
+        <v>46323</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71161</v>
+        <v>70782</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08151386805550027</v>
+        <v>0.08151386805550029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06485879262764278</v>
+        <v>0.06523488439996115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1002146322314325</v>
+        <v>0.09967995260773142</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>191</v>
@@ -7020,19 +7020,19 @@
         <v>105122</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90185</v>
+        <v>91958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>120163</v>
+        <v>120409</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1182468314854533</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1014447922947333</v>
+        <v>0.1034383404553774</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1351655918634581</v>
+        <v>0.1354421616190895</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>275</v>
@@ -7041,19 +7041,19 @@
         <v>163005</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>144207</v>
+        <v>146671</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>183231</v>
+        <v>183273</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1019353500098791</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0901803642015314</v>
+        <v>0.09172102497578427</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1145838617085227</v>
+        <v>0.1146105296523984</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>634512</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>619111</v>
+        <v>620811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>647490</v>
+        <v>647415</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8935679770399771</v>
+        <v>0.8935679770399773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8718798114179226</v>
+        <v>0.874272664519877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.911844575641212</v>
+        <v>0.9117391783476364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1409</v>
@@ -7091,19 +7091,19 @@
         <v>740528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>723688</v>
+        <v>723673</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>758004</v>
+        <v>756845</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8329812085581803</v>
+        <v>0.8329812085581801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8140395563944992</v>
+        <v>0.8140222261103635</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8526390470995072</v>
+        <v>0.8513359458781053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2313</v>
@@ -7112,19 +7112,19 @@
         <v>1375041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1352611</v>
+        <v>1351872</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1394776</v>
+        <v>1394507</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8598851079302052</v>
+        <v>0.8598851079302051</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.845858603471044</v>
+        <v>0.845396386336884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8722265982204875</v>
+        <v>0.872058289851334</v>
       </c>
     </row>
     <row r="23">
